--- a/Resultados/Material + Ano/Template.xlsx
+++ b/Resultados/Material + Ano/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E18900-3A7C-44D8-A1B2-75568331D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626F6CB-ED8C-4556-9AB1-29F87235F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +541,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,11 +554,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,25 +562,69 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -585,6 +635,28 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -697,72 +769,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -834,24 +840,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}" name="Tabela1" displayName="Tabela1" ref="A1:J6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1179,7 +1185,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
@@ -1210,109 +1216,109 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1663,10 +1669,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1675,16 +1681,16 @@
     <col min="2" max="2" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="46" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
         <v>0</v>
       </c>
@@ -1701,8 +1707,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="str">
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -1718,9 +1724,12 @@
         <f>SUM(C3:G3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="J3" s="51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -1733,9 +1742,12 @@
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="J4" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -1748,9 +1760,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="J5" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -1763,9 +1778,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
+      <c r="J6" s="51">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -1778,8 +1796,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="51">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C3:C7)</f>
         <v>0</v>
@@ -1870,15 +1891,15 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22"/>
@@ -1918,7 +1939,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18">
         <v>1</v>
@@ -1961,7 +1982,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18">
         <v>2</v>
@@ -2004,7 +2025,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <v>3</v>
@@ -2047,7 +2068,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18">
         <v>4</v>
@@ -2093,7 +2114,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22"/>
@@ -2115,7 +2136,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18">
         <v>0</v>
@@ -2138,7 +2159,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>2</v>
@@ -2161,7 +2182,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18">
         <v>3</v>
@@ -2184,7 +2205,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18">
         <v>4</v>
@@ -2207,7 +2228,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22"/>
@@ -2229,7 +2250,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18">
         <v>0</v>
@@ -2252,7 +2273,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18">
         <v>1</v>
@@ -2275,7 +2296,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18">
         <v>3</v>
@@ -2298,7 +2319,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18">
         <v>4</v>
@@ -2321,7 +2342,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22"/>
@@ -2343,7 +2364,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18">
         <v>0</v>
@@ -2366,7 +2387,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18">
         <v>1</v>
@@ -2389,7 +2410,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18">
         <v>2</v>
@@ -2412,7 +2433,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18">
         <v>4</v>
@@ -2435,7 +2456,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22"/>
@@ -2457,7 +2478,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18">
         <v>0</v>
@@ -2480,7 +2501,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18">
         <v>1</v>
@@ -2503,7 +2524,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18">
         <v>2</v>
@@ -2526,7 +2547,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18">
         <v>3</v>
@@ -2623,10 +2644,10 @@
       <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="30">
         <f>'Matriz Confusão 2'!H3</f>
         <v>0</v>
@@ -2653,10 +2674,10 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="30">
         <f>'Matriz Confusão 2'!H4</f>
         <v>0</v>
@@ -2683,10 +2704,10 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="30">
         <f>'Matriz Confusão 2'!H5</f>
         <v>0</v>
@@ -2713,10 +2734,10 @@
       <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="30">
         <f>'Matriz Confusão 2'!H6</f>
         <v>0</v>
@@ -2743,10 +2764,10 @@
       <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="30">
         <f>'Matriz Confusão 2'!H7</f>
         <v>0</v>

--- a/Resultados/Material + Ano/Template.xlsx
+++ b/Resultados/Material + Ano/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626F6CB-ED8C-4556-9AB1-29F87235F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4B96D-6168-4CAD-A797-558A116C09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -542,6 +542,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,7 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1185,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
@@ -1306,19 +1306,19 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1671,7 +1671,7 @@
   <sheetPr codeName="Folha4"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
@@ -1682,13 +1682,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="str">
+      <c r="A3" s="50" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -1724,12 +1724,12 @@
         <f>SUM(C3:G3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -1742,12 +1742,12 @@
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -1760,12 +1760,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -1778,12 +1778,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="47">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -1796,7 +1796,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="47">
         <v>563</v>
       </c>
     </row>
@@ -1891,15 +1891,15 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22"/>
@@ -1939,7 +1939,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18">
         <v>1</v>
@@ -1982,7 +1982,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18">
         <v>2</v>
@@ -2025,7 +2025,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <v>3</v>
@@ -2068,7 +2068,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18">
         <v>4</v>
@@ -2114,7 +2114,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22"/>
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18">
         <v>0</v>
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>2</v>
@@ -2182,7 +2182,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18">
         <v>3</v>
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18">
         <v>4</v>
@@ -2228,7 +2228,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22"/>
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18">
         <v>0</v>
@@ -2273,7 +2273,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18">
         <v>1</v>
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18">
         <v>3</v>
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18">
         <v>4</v>
@@ -2342,7 +2342,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22"/>
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18">
         <v>0</v>
@@ -2387,7 +2387,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18">
         <v>1</v>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18">
         <v>2</v>
@@ -2433,7 +2433,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18">
         <v>4</v>
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22"/>
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18">
         <v>0</v>
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18">
         <v>1</v>
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18">
         <v>2</v>
@@ -2547,7 +2547,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18">
         <v>3</v>

--- a/Resultados/Material + Ano/Template.xlsx
+++ b/Resultados/Material + Ano/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4B96D-6168-4CAD-A797-558A116C09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B7ABF-D22F-4E38-9003-4E8193084A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -1185,8 +1185,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1435,7 +1435,7 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1844,7 +1844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26:B30"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1853,7 +1853,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
@@ -1861,9 +1861,10 @@
     <col min="10" max="10" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="9"/>
-    <col min="13" max="13" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
@@ -1902,7 +1903,10 @@
       <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22">
+        <f>'Matriz Confusão 2'!C3</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
@@ -1940,7 +1944,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="18">
+        <f>'Matriz Confusão 2'!D3</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1971,19 +1978,22 @@
       </c>
       <c r="M3" s="18">
         <f>COUNTIFS(D2:D30,N3,B2:B30,"&lt;&gt;0")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="45" t="e">
         <f>M3/$M$6</f>
-        <v>0.2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18">
+        <f>'Matriz Confusão 2'!E3</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="18">
         <v>2</v>
       </c>
@@ -2014,19 +2024,22 @@
       </c>
       <c r="M4" s="18">
         <f>COUNTIFS(D2:D30,N4,B2:B30,"&lt;&gt;0")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="45" t="e">
         <f t="shared" ref="O4:O5" si="4">M4/$M$6</f>
-        <v>0.2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18">
+        <f>'Matriz Confusão 2'!F3</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="18">
         <v>3</v>
       </c>
@@ -2057,19 +2070,22 @@
       </c>
       <c r="M5" s="18">
         <f>COUNTIFS(D2:D30,N5,B2:B30,"&lt;&gt;0")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18">
+        <f>'Matriz Confusão 2'!G3</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="18">
         <v>4</v>
       </c>
@@ -2100,7 +2116,7 @@
       </c>
       <c r="M6" s="9">
         <f>SUM(M3:M5)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -2117,7 +2133,10 @@
       <c r="A8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="22">
+        <f>'Matriz Confusão 2'!D4</f>
+        <v>0</v>
+      </c>
       <c r="C8" s="22">
         <v>1</v>
       </c>
@@ -2137,7 +2156,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18">
+        <f>'Matriz Confusão 2'!C4</f>
+        <v>0</v>
+      </c>
       <c r="C9" s="18">
         <v>0</v>
       </c>
@@ -2160,7 +2182,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18">
+        <f>'Matriz Confusão 2'!E4</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="18">
         <v>2</v>
       </c>
@@ -2183,7 +2208,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18">
+        <f>'Matriz Confusão 2'!F4</f>
+        <v>0</v>
+      </c>
       <c r="C11" s="18">
         <v>3</v>
       </c>
@@ -2206,7 +2234,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18">
+        <f>'Matriz Confusão 2'!G4</f>
+        <v>0</v>
+      </c>
       <c r="C12" s="18">
         <v>4</v>
       </c>
@@ -2231,7 +2262,10 @@
       <c r="A14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="22">
+        <f>'Matriz Confusão 2'!E5</f>
+        <v>0</v>
+      </c>
       <c r="C14" s="22">
         <v>2</v>
       </c>
@@ -2251,7 +2285,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="50"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18">
+        <f>'Matriz Confusão 2'!C5</f>
+        <v>0</v>
+      </c>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -2274,7 +2311,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18">
+        <f>'Matriz Confusão 2'!D5</f>
+        <v>0</v>
+      </c>
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2297,7 +2337,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="18">
+        <f>'Matriz Confusão 2'!F5</f>
+        <v>0</v>
+      </c>
       <c r="C17" s="18">
         <v>3</v>
       </c>
@@ -2320,7 +2363,10 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="18">
+        <f>'Matriz Confusão 2'!G5</f>
+        <v>0</v>
+      </c>
       <c r="C18" s="18">
         <v>4</v>
       </c>
@@ -2345,7 +2391,10 @@
       <c r="A20" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="22">
+        <f>'Matriz Confusão 2'!F6</f>
+        <v>0</v>
+      </c>
       <c r="C20" s="22">
         <v>3</v>
       </c>
@@ -2365,7 +2414,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="50"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18">
+        <f>'Matriz Confusão 2'!C6</f>
+        <v>0</v>
+      </c>
       <c r="C21" s="18">
         <v>0</v>
       </c>
@@ -2388,7 +2440,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="50"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18">
+        <f>'Matriz Confusão 2'!D6</f>
+        <v>0</v>
+      </c>
       <c r="C22" s="18">
         <v>1</v>
       </c>
@@ -2411,7 +2466,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18">
+        <f>'Matriz Confusão 2'!E6</f>
+        <v>0</v>
+      </c>
       <c r="C23" s="18">
         <v>2</v>
       </c>
@@ -2434,7 +2492,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="18">
+        <f>'Matriz Confusão 2'!G6</f>
+        <v>0</v>
+      </c>
       <c r="C24" s="18">
         <v>4</v>
       </c>
@@ -2459,7 +2520,10 @@
       <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="22">
+        <f>'Matriz Confusão 2'!G7</f>
+        <v>0</v>
+      </c>
       <c r="C26" s="22">
         <v>4</v>
       </c>
@@ -2479,7 +2543,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="50"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="18">
+        <f>'Matriz Confusão 2'!C7</f>
+        <v>0</v>
+      </c>
       <c r="C27" s="18">
         <v>0</v>
       </c>
@@ -2502,7 +2569,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="50"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="18">
+        <f>'Matriz Confusão 2'!D7</f>
+        <v>0</v>
+      </c>
       <c r="C28" s="18">
         <v>1</v>
       </c>
@@ -2525,7 +2595,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="50"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18">
+        <f>'Matriz Confusão 2'!E7</f>
+        <v>0</v>
+      </c>
       <c r="C29" s="18">
         <v>2</v>
       </c>
@@ -2548,7 +2621,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18">
+        <f>'Matriz Confusão 2'!F7</f>
+        <v>0</v>
+      </c>
       <c r="C30" s="18">
         <v>3</v>
       </c>
@@ -2589,25 +2665,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:E6"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -2640,7 +2716,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -2670,7 +2746,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -2700,7 +2776,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -2730,7 +2806,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -2760,7 +2836,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -2790,7 +2866,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2830,7 +2906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2870,7 +2946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>0</v>
       </c>
@@ -2910,7 +2986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -2950,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -2990,7 +3066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -3031,7 +3107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="G13">
         <f>SUM(G7:G12)+B9</f>
